--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1016457.861684627</v>
+        <v>1045459.539109923</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.95395642</v>
+        <v>272318.5912096087</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>8859705.390340978</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8666043.228026358</v>
+        <v>8734754.184533872</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>84.9514922344153</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>164.8783252168511</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +837,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>26.64360395382583</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1025,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.35153719005459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1105,10 +1107,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>199.6289396988172</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>164.8783252168516</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>190.271393580297</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.62420577171</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>84.45262105857543</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>334.5817096732204</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2.801690848279645</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>48.91401559658163</v>
       </c>
       <c r="J16" t="n">
-        <v>17.49690079789915</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>279.9387901805692</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>22.28704139029322</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>203.1609600883623</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>43.31785343913997</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>94.63926978364054</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>123.5492650282466</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.9978294690249</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>57.44899573820091</v>
       </c>
       <c r="C29" t="n">
-        <v>221.0021786982965</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2846,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V31" t="n">
-        <v>162.3364906735233</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>189.596843649344</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.15413307422603</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480831</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -3475,13 +3477,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3509,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>252.1445499962345</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>42.94598636023109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3715,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>162.336490673523</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>199.8239850299823</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>125.3787979092682</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>94.63926978364043</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>304.7358443710041</v>
       </c>
       <c r="X44" t="n">
-        <v>298.6283627759816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>168.7756050755992</v>
+        <v>232.6900396322351</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.175505447095</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C2" t="n">
-        <v>825.2129885066831</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D2" t="n">
-        <v>466.9472898999326</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>466.9472898999326</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9472898999326</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>466.9472898999326</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>139.7525699359355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4434,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4471,13 +4473,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4673,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.9054987607762</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="C8" t="n">
-        <v>53.94298182036446</v>
+        <v>613.8540740622839</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036446</v>
+        <v>255.5883754555334</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036446</v>
+        <v>255.5883754555334</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036446</v>
+        <v>255.5883754555334</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2256.941971675474</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1925.879084331904</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1573.11042906179</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1199.64467080071</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>809.505338824898</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.94416071721</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776798</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776798</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785536</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5117,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5136,7 +5138,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5224,25 +5226,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.94416071721</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C14" t="n">
-        <v>1546.94416071721</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>1188.678462110459</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>802.8902095122148</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>391.9043047226073</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5294,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2694.319100262384</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2694.319100262384</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2694.319100262384</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2694.319100262384</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2694.319100262384</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>2341.55044499227</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5354,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5361,10 +5363,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>365.6939024587812</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E16" t="n">
-        <v>365.6939024587812</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F16" t="n">
-        <v>365.6939024587812</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="G16" t="n">
-        <v>365.6939024587812</v>
+        <v>261.099450950038</v>
       </c>
       <c r="H16" t="n">
-        <v>207.9455298913113</v>
+        <v>103.3510783825681</v>
       </c>
       <c r="I16" t="n">
-        <v>71.61661898995956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5458,28 +5460,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1551.447402037877</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5516,10 +5518,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5555,10 +5557,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5574,40 +5576,40 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>76.45514484086266</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>76.45514484086266</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1577.945354755378</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C20" t="n">
         <v>1208.982837814967</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E20" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
@@ -5762,7 +5764,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5771,25 +5773,25 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X20" t="n">
         <v>2354.684526795312</v>
@@ -5826,22 +5828,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5941,19 +5943,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>149.5382038240418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5968,34 @@
         <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6066,16 +6068,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>2442.464602812336</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,70 +6202,70 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1577.945354755379</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C26" t="n">
         <v>1208.982837814967</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082163</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E26" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
         <v>2354.684526795312</v>
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6324,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>517.0200655508536</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C28" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>517.0200655508536</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.0200655508536</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
         <v>882.8926947117852</v>
@@ -6452,37 +6454,37 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6494,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036469</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614632</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6585,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V31" t="n">
-        <v>564.1527310008552</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W31" t="n">
-        <v>274.7355609638946</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6683,19 +6685,19 @@
         <v>1177.981643776797</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6704,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6740,10 +6742,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M33" t="n">
         <v>1194.968834417902</v>
@@ -6798,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U34" t="n">
-        <v>2505.637127736057</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V34" t="n">
-        <v>2250.95263953017</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W34" t="n">
-        <v>2250.95263953017</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>210.7222632714561</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1352.60098147425</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>983.6384645338385</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D35" t="n">
-        <v>625.3727659270879</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E35" t="n">
-        <v>625.3727659270879</v>
+        <v>737.1647017090459</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>326.1787969194383</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X35" t="n">
-        <v>1386.090004781549</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y35" t="n">
-        <v>1386.090004781549</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7013,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7114,31 +7116,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S37" t="n">
-        <v>336.2769833124028</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T37" t="n">
-        <v>108.9687959810045</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U37" t="n">
-        <v>108.9687959810045</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>892.8693763960225</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="C38" t="n">
-        <v>892.8693763960225</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="D38" t="n">
-        <v>534.603677789272</v>
+        <v>1105.408603850877</v>
       </c>
       <c r="E38" t="n">
-        <v>534.603677789272</v>
+        <v>719.6203512526331</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>308.6344464630255</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.546461473041</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982761</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y38" t="n">
-        <v>892.8693763960225</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7250,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.172837812644</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>2533.172837812644</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>2243.755667775683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>2243.755667775683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1463.674302457628</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1094.711785517217</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>736.4460869104662</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>534.603677789272</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F41" t="n">
-        <v>534.603677789272</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
@@ -7421,40 +7423,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1837.140060718708</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1463.674302457628</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1463.674302457628</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036469</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614632</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610023</v>
+        <v>601.483733793032</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610023</v>
+        <v>601.483733793032</v>
       </c>
       <c r="W43" t="n">
-        <v>149.5382038240417</v>
+        <v>601.483733793032</v>
       </c>
       <c r="X43" t="n">
-        <v>149.5382038240417</v>
+        <v>601.483733793032</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1261.831893336434</v>
+        <v>1656.816251218457</v>
       </c>
       <c r="C44" t="n">
-        <v>892.8693763960225</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="D44" t="n">
-        <v>534.603677789272</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E44" t="n">
-        <v>534.603677789272</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F44" t="n">
-        <v>534.603677789272</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U44" t="n">
-        <v>2247.308246834949</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V44" t="n">
-        <v>1916.245359491378</v>
+        <v>3114.835165732605</v>
       </c>
       <c r="W44" t="n">
-        <v>1563.476704221264</v>
+        <v>2807.02118151947</v>
       </c>
       <c r="X44" t="n">
-        <v>1261.831893336434</v>
+        <v>2433.55542325839</v>
       </c>
       <c r="Y44" t="n">
-        <v>1261.831893336434</v>
+        <v>2043.416091282578</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1548.327088765651</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1746.983830418315</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2296.419839171037</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S46" t="n">
-        <v>513.840561024597</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T46" t="n">
-        <v>513.840561024597</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U46" t="n">
-        <v>343.3601518573251</v>
+        <v>838.886032512998</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>584.2015443071111</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>294.7843742701506</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>294.7843742701506</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142017</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569079</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,10 +22564,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>66.97982401044595</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>86.34584229143817</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22711,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>387.1405660669691</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22841,16 +22843,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22960,7 +22962,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>112.6140846022836</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -22993,10 +22995,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23024,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>214.1552303219778</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>86.34584229143772</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>96.01048066168073</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23306,7 +23308,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>205.1068949067591</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853699</v>
@@ -23464,13 +23466,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>79.20246034757463</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>51.67671172653205</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.05160619575659</v>
       </c>
       <c r="J16" t="n">
-        <v>27.70305839063784</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>74.74425144011371</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>112.678580402045</v>
       </c>
       <c r="J19" t="n">
         <v>45.19995918853699</v>
@@ -23938,10 +23940,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>21.87414536972193</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24181,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>131.0703856053966</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.723626742761</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24652,7 +24654,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>16.03727598905937</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>325.2848459252797</v>
       </c>
       <c r="C29" t="n">
-        <v>144.2707130727111</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24734,13 +24736,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V31" t="n">
-        <v>89.80115265030466</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -25093,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25129,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>96.68503059263375</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>349.5797085892546</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>144.2707130727119</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>80.49006577330459</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>168.53933734988</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>161.6396200245605</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>343.2919522958225</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25603,10 +25605,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>123.9453835684547</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>182.1063850422795</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25685,16 +25687,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25840,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>160.9030763327096</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.9453835684544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>44.50512434640893</v>
       </c>
       <c r="X44" t="n">
-        <v>71.10273790248743</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>117.5062691663785</v>
+        <v>53.57061502586191</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>749455.2536452995</v>
+        <v>749455.2536452996</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>749455.2536452995</v>
+        <v>749455.2536452996</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>749455.2536452996</v>
+        <v>749455.2536452995</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>749455.2536452996</v>
+        <v>749455.2536452995</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>749455.2536452995</v>
+        <v>749455.2536452994</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>749455.2536452996</v>
+        <v>749455.2536452994</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>749455.2536452996</v>
+        <v>749455.2536452994</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>749455.2536452996</v>
+        <v>749455.2536452995</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>749455.2536452996</v>
+        <v>868440.3987216185</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26319,10 @@
         <v>289152.6100157574</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="E2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="F2" t="n">
         <v>289152.6100157577</v>
@@ -26329,31 +26331,31 @@
         <v>289152.6100157577</v>
       </c>
       <c r="H2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="I2" t="n">
         <v>289152.6100157576</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289152.6100157577</v>
       </c>
       <c r="J2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="O2" t="n">
         <v>289152.6100157577</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157575</v>
+        <v>337735.6556933236</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>202824.0593593174</v>
       </c>
     </row>
     <row r="4">
@@ -26433,7 +26435,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="H4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="I4" t="n">
         <v>27086.83710496504</v>
@@ -26457,7 +26459,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="P4" t="n">
-        <v>27086.83710496505</v>
+        <v>24740.78594361633</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26503,13 +26505,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>69171.54328360136</v>
       </c>
     </row>
     <row r="6">
@@ -26522,13 +26524,13 @@
         <v>-410761.1843671615</v>
       </c>
       <c r="C6" t="n">
-        <v>179206.6948473829</v>
+        <v>179206.694847383</v>
       </c>
       <c r="D6" t="n">
-        <v>179206.6948473832</v>
+        <v>179206.6948473831</v>
       </c>
       <c r="E6" t="n">
-        <v>212834.2948473831</v>
+        <v>212834.2948473829</v>
       </c>
       <c r="F6" t="n">
         <v>212834.2948473832</v>
@@ -26537,31 +26539,31 @@
         <v>212834.2948473832</v>
       </c>
       <c r="H6" t="n">
+        <v>212834.2948473832</v>
+      </c>
+      <c r="I6" t="n">
         <v>212834.2948473831</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>36411.07565479011</v>
+      </c>
+      <c r="K6" t="n">
+        <v>212834.2948473828</v>
+      </c>
+      <c r="L6" t="n">
+        <v>212834.294847383</v>
+      </c>
+      <c r="M6" t="n">
+        <v>212834.294847383</v>
+      </c>
+      <c r="N6" t="n">
         <v>212834.2948473832</v>
-      </c>
-      <c r="J6" t="n">
-        <v>36411.07565479013</v>
-      </c>
-      <c r="K6" t="n">
-        <v>212834.2948473829</v>
-      </c>
-      <c r="L6" t="n">
-        <v>212834.2948473831</v>
-      </c>
-      <c r="M6" t="n">
-        <v>212834.2948473829</v>
-      </c>
-      <c r="N6" t="n">
-        <v>212834.2948473828</v>
       </c>
       <c r="O6" t="n">
         <v>212834.2948473832</v>
       </c>
       <c r="P6" t="n">
-        <v>212834.294847383</v>
+        <v>40999.26710678848</v>
       </c>
     </row>
   </sheetData>
@@ -26765,7 +26767,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380635</v>
       </c>
     </row>
     <row r="4">
@@ -26793,43 +26795,43 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="M4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>924.8974390827563</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>215.7324361209769</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>250.6101663282006</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K32" t="n">
         <v>193.1674799081577</v>
@@ -33430,25 +33432,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P33" t="n">
         <v>155.1528646479577</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M34" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N34" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36139,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,10 +36211,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735647</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36443,10 +36445,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36917,7 +36919,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M34" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N34" t="n">
         <v>148.370846145888</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,10 +37633,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116803</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>340.5859315097343</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472377</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N46" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
